--- a/reference/UIdesign.xlsx
+++ b/reference/UIdesign.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="280" windowWidth="25600" windowHeight="15760" tabRatio="500"/>
+    <workbookView xWindow="1440" yWindow="140" windowWidth="25600" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -18,9 +18,190 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+每次打开应用都要求输入密码（如果设置了yes）
+像安卓手机的屏幕保护 支付宝的打开的时候要求输入的密码那样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码输入正确就跳转到p2
+不正确就一直在这个界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主功能界面
+也是打开应用后的第一个界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到p3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>像ios一样会抖动 可以删除或者移动（new不能删除或者移动)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长按</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这2个效果一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到p4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到p5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建一个记事本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看记事本的详细内容或者修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回不保存修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回并保存修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回就是跳转到p2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题 可以修改
+参考‘其他’列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能和p4一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回p2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成编辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除（有提示 是否删除)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长按</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以移动顺序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记事本 详细内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左滑或者右滑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有键盘 那么键盘消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -33,6 +214,33 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -54,18 +262,887 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3378200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190501" y="330201"/>
+          <a:ext cx="3187699" cy="4781549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3318933</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="5676900"/>
+          <a:ext cx="3090333" cy="4635500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3052233</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="292100" y="10833100"/>
+          <a:ext cx="2760133" cy="4140200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>355599</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3035300</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="355599" y="15011400"/>
+          <a:ext cx="2679701" cy="3860800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直线箭头连接符 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="609600" y="6045200"/>
+          <a:ext cx="6908800" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直线箭头连接符 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1003300" y="6438900"/>
+          <a:ext cx="6451600" cy="101600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直线箭头连接符 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="977900" y="6731000"/>
+          <a:ext cx="6413500" cy="101600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直线箭头连接符 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1054100" y="7391400"/>
+          <a:ext cx="6248400" cy="215900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406401</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2700868</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12242801" y="10744200"/>
+          <a:ext cx="2294467" cy="3441700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>279401</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3234268</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="279401" y="19037300"/>
+          <a:ext cx="2954867" cy="4432300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>393699</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2781299</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11582399" y="15176500"/>
+          <a:ext cx="2387600" cy="3581400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直线箭头连接符 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="622300" y="15214600"/>
+          <a:ext cx="6057900" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2755900</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直线箭头连接符 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2755900" y="15595600"/>
+          <a:ext cx="3949700" cy="25400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直线箭头连接符 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="15633700"/>
+          <a:ext cx="4953000" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1016000</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直线箭头连接符 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1016000" y="16713200"/>
+          <a:ext cx="5702300" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直线箭头连接符 41"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="736600" y="10820400"/>
+          <a:ext cx="5956300" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1346200</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直线箭头连接符 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1346200" y="11214100"/>
+          <a:ext cx="5283200" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1651000</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直线箭头连接符 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1651000" y="11963400"/>
+          <a:ext cx="5029200" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1612900</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直线箭头连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1612900" y="17653000"/>
+          <a:ext cx="5092700" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -390,14 +1467,694 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E95" sqref="E95"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="46.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.33203125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="4"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="2:7" ht="30">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="2:6" ht="30">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+    </row>
+    <row r="84" spans="2:6" ht="30">
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6">
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+    </row>
+    <row r="90" spans="2:6" ht="30">
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" s="6"/>
+      <c r="C112" s="6"/>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" s="6"/>
+      <c r="C113" s="6"/>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+    </row>
+    <row r="117" spans="2:3">
+      <c r="B117" s="6"/>
+      <c r="C117" s="6"/>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+    </row>
+    <row r="121" spans="2:3">
+      <c r="B121" s="6"/>
+      <c r="C121" s="6"/>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C4:C29"/>
+    <mergeCell ref="B4:B29"/>
+    <mergeCell ref="B30:B54"/>
+    <mergeCell ref="D4:D29"/>
+    <mergeCell ref="C30:C54"/>
+    <mergeCell ref="B56:B77"/>
+    <mergeCell ref="C56:C77"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="B79:B99"/>
+    <mergeCell ref="B100:B123"/>
+    <mergeCell ref="C79:C99"/>
+    <mergeCell ref="F79:F81"/>
+    <mergeCell ref="C100:C123"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/reference/UIdesign.xlsx
+++ b/reference/UIdesign.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="140" windowWidth="25600" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="2060" yWindow="0" windowWidth="26880" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
+    <sheet name="开启密码" sheetId="3" r:id="rId2"/>
+    <sheet name="修改密码" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
   <si>
     <t>图片</t>
   </si>
@@ -194,6 +196,224 @@
   </si>
   <si>
     <t>如果有键盘 那么键盘消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转到p6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码输入错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入正确直接返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2次密码一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2次密码不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色的匡（密码设置成功）出现一下后  自动返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转p7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回p6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见开启密码工作表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色的匡（输入不一致 请重新输入）出现一下后  自动跳转到‘请输入新密码’界面
+黑色的匡UI可以改变的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2次输入一样 
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2次输入不一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色的匡显示后 自动跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色的匡显示后自动返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入错误 就一直在这个界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码输入正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见修改密码工作表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果开启密码状态是off的，那么点击这个没有任何效果（没任何反映，不做任何跳转)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置字体 
+p4里的content的字体大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左上角的返回都一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改字体 并保存返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾表示当前字体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">菜单界面
+右滑可以返回（返回p2）
+像微信右滑返回一样
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>除了p4 其他界面右滑都可以返回</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转p9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">保存版本
+保存当前所有记事本的内容到本地
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这时一个输入框
+让用户输入保存版本的标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考p10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有任何操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示当前时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存版本后返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果标题是空的，那么active标题的输入框，要求用户输入标题（不保存 不返回)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘下去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击这个界面深灰色的地方，键盘下去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了能点击保存按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -201,7 +421,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -244,6 +464,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -262,7 +490,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -272,8 +500,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -293,17 +523,34 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1120,6 +1367,2322 @@
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2628900</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直线箭头连接符 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2628900" y="11214100"/>
+          <a:ext cx="4076700" cy="1346200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3302000</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="203200" y="24510999"/>
+          <a:ext cx="3098800" cy="4648201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139701</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3128434</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="139701" y="29476700"/>
+          <a:ext cx="2988733" cy="4483100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直线箭头连接符 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="533400" y="24523700"/>
+          <a:ext cx="6146800" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2527300</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直线箭头连接符 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2527300" y="24917400"/>
+          <a:ext cx="4089400" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2349500</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直线箭头连接符 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2349500" y="25298400"/>
+          <a:ext cx="4356100" cy="469900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2133600</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直线箭头连接符 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2133600" y="25679400"/>
+          <a:ext cx="4610100" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2374900</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直线箭头连接符 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2374900" y="26035000"/>
+          <a:ext cx="4305300" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2298700</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直线箭头连接符 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2298700" y="26441400"/>
+          <a:ext cx="4406900" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直线箭头连接符 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="469900" y="29311600"/>
+          <a:ext cx="6210300" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2717800</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>317500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直线箭头连接符 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2717800" y="29679900"/>
+          <a:ext cx="3949700" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1879600</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>546100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>800100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直线箭头连接符 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1879600" y="30505400"/>
+          <a:ext cx="4787900" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1816100</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直线箭头连接符 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1816100" y="31127700"/>
+          <a:ext cx="4826000" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>292101</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3255435</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="图片 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="292101" y="34264600"/>
+          <a:ext cx="2963334" cy="4445000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2311400</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直线箭头连接符 51"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2311400" y="35001200"/>
+          <a:ext cx="4406900" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2298700</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直线箭头连接符 53"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2298700" y="35369500"/>
+          <a:ext cx="4381500" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2438400</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直线箭头连接符 55"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2438400" y="35763200"/>
+          <a:ext cx="4254500" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3276601</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="图片 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152401" y="39001700"/>
+          <a:ext cx="3124200" cy="4686300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1739900</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直线箭头连接符 60"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1739900" y="39395400"/>
+          <a:ext cx="4940300" cy="965200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1752600</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直线箭头连接符 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1752600" y="40525700"/>
+          <a:ext cx="4965700" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2476500</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直线箭头连接符 64"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2476500" y="41478200"/>
+          <a:ext cx="4191000" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3302000</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="图片 65"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="177800" y="43967400"/>
+          <a:ext cx="3124200" cy="4686300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>355600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直线箭头连接符 71"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="749300" y="46202600"/>
+          <a:ext cx="5905500" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>279401</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177801</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1536701" y="444500"/>
+          <a:ext cx="1549400" cy="2324100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>359834</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447801" y="3111500"/>
+          <a:ext cx="1820333" cy="2730500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330199</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562600" y="3136901"/>
+          <a:ext cx="1803399" cy="2705099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>486833</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5651500" y="6985000"/>
+          <a:ext cx="1871133" cy="2806700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9194800" y="3130550"/>
+          <a:ext cx="1790700" cy="2686050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>63502</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="406400"/>
+          <a:ext cx="1549401" cy="2324102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直线箭头连接符 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2565400" y="1587500"/>
+          <a:ext cx="4064000" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直线箭头连接符 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2540000" y="2133600"/>
+          <a:ext cx="6705600" cy="63500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直线箭头连接符 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2324100" y="4483100"/>
+          <a:ext cx="3848100" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直线箭头连接符 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6845300" y="4483100"/>
+          <a:ext cx="2705100" cy="25400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直线箭头连接符 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6464300" y="5041900"/>
+          <a:ext cx="12700" cy="2806700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="肘形连接符 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="2343150" y="5124450"/>
+          <a:ext cx="4013200" cy="3644900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 633"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直线箭头连接符 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10312400" y="5029200"/>
+          <a:ext cx="2044700" cy="165100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>469901</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>313268</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3149601" y="241300"/>
+          <a:ext cx="2319867" cy="3479800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>165098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124200" y="4660899"/>
+          <a:ext cx="2463800" cy="3695699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133353</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>660399</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6997700" y="323853"/>
+          <a:ext cx="2120899" cy="3181347"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>681567</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10604500" y="596900"/>
+          <a:ext cx="1837267" cy="2755900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10591800" y="4324350"/>
+          <a:ext cx="1892300" cy="2838450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>512233</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14605000" y="571500"/>
+          <a:ext cx="1794933" cy="2692400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直线箭头连接符 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="774700" y="1943100"/>
+          <a:ext cx="3098800" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直线箭头连接符 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3937000" y="2705100"/>
+          <a:ext cx="63500" cy="3657600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直线箭头连接符 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4648200" y="1981200"/>
+          <a:ext cx="3200400" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直线箭头连接符 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305800" y="1943100"/>
+          <a:ext cx="2984500" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直线箭头连接符 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11772900" y="2006600"/>
+          <a:ext cx="3162300" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直线箭头连接符 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11226800" y="2603500"/>
+          <a:ext cx="50800" cy="2806700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="肘形连接符 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4572000" y="2717800"/>
+          <a:ext cx="6692900" cy="3670300"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 70114"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直线箭头连接符 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14732000" y="2489200"/>
+          <a:ext cx="304800" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="右弧形箭头 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="6426200"/>
+          <a:ext cx="1346200" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="肘形连接符 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="3689350" y="3054350"/>
+          <a:ext cx="5168900" cy="4292600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -369"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
@@ -1467,11 +4030,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E95" sqref="E95"/>
+      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G225" sqref="G225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1859,6 +4422,12 @@
     <row r="64" spans="2:6">
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
+      <c r="D64" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="6"/>
@@ -2091,57 +4660,617 @@
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
     </row>
-    <row r="113" spans="2:3">
+    <row r="113" spans="2:6">
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
     </row>
-    <row r="114" spans="2:3">
+    <row r="114" spans="2:6">
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
     </row>
-    <row r="115" spans="2:3">
+    <row r="115" spans="2:6">
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
     </row>
-    <row r="116" spans="2:3">
+    <row r="116" spans="2:6">
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
     </row>
-    <row r="117" spans="2:3">
+    <row r="117" spans="2:6">
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
     </row>
-    <row r="118" spans="2:3">
+    <row r="118" spans="2:6">
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
     </row>
-    <row r="119" spans="2:3">
+    <row r="119" spans="2:6">
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
     </row>
-    <row r="120" spans="2:3">
+    <row r="120" spans="2:6">
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
     </row>
-    <row r="121" spans="2:3">
+    <row r="121" spans="2:6">
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
     </row>
-    <row r="122" spans="2:3">
+    <row r="122" spans="2:6">
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
     </row>
-    <row r="123" spans="2:3">
+    <row r="123" spans="2:6">
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
     </row>
+    <row r="125" spans="2:6">
+      <c r="B125" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" s="6"/>
+      <c r="C128" s="6"/>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" s="6"/>
+      <c r="C144" s="6"/>
+    </row>
+    <row r="145" spans="2:6">
+      <c r="B145" s="6"/>
+      <c r="C145" s="6"/>
+    </row>
+    <row r="146" spans="2:6">
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+    </row>
+    <row r="147" spans="2:6">
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+    </row>
+    <row r="148" spans="2:6">
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+    </row>
+    <row r="149" spans="2:6">
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+    </row>
+    <row r="150" spans="2:6">
+      <c r="D150" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6">
+      <c r="B151" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6">
+      <c r="B152" s="6"/>
+      <c r="D152" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6">
+      <c r="B153" s="6"/>
+    </row>
+    <row r="154" spans="2:6" ht="75">
+      <c r="B154" s="6"/>
+      <c r="D154" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6">
+      <c r="B155" s="6"/>
+    </row>
+    <row r="156" spans="2:6">
+      <c r="B156" s="6"/>
+    </row>
+    <row r="157" spans="2:6">
+      <c r="B157" s="6"/>
+    </row>
+    <row r="158" spans="2:6">
+      <c r="B158" s="6"/>
+    </row>
+    <row r="159" spans="2:6">
+      <c r="B159" s="6"/>
+    </row>
+    <row r="160" spans="2:6">
+      <c r="B160" s="6"/>
+    </row>
+    <row r="161" spans="2:6">
+      <c r="B161" s="6"/>
+    </row>
+    <row r="162" spans="2:6">
+      <c r="B162" s="6"/>
+    </row>
+    <row r="163" spans="2:6">
+      <c r="B163" s="6"/>
+    </row>
+    <row r="164" spans="2:6">
+      <c r="B164" s="6"/>
+    </row>
+    <row r="165" spans="2:6">
+      <c r="B165" s="6"/>
+    </row>
+    <row r="166" spans="2:6">
+      <c r="B166" s="6"/>
+    </row>
+    <row r="167" spans="2:6">
+      <c r="B167" s="6"/>
+    </row>
+    <row r="168" spans="2:6">
+      <c r="B168" s="6"/>
+    </row>
+    <row r="169" spans="2:6">
+      <c r="B169" s="6"/>
+    </row>
+    <row r="170" spans="2:6">
+      <c r="B170" s="6"/>
+    </row>
+    <row r="171" spans="2:6">
+      <c r="B171" s="5"/>
+    </row>
+    <row r="172" spans="2:6">
+      <c r="B172" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6">
+      <c r="B173" s="6"/>
+      <c r="C173" s="6"/>
+    </row>
+    <row r="174" spans="2:6">
+      <c r="B174" s="6"/>
+      <c r="C174" s="6"/>
+    </row>
+    <row r="175" spans="2:6">
+      <c r="B175" s="6"/>
+      <c r="C175" s="6"/>
+    </row>
+    <row r="176" spans="2:6">
+      <c r="B176" s="6"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6">
+      <c r="B177" s="6"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="6"/>
+    </row>
+    <row r="178" spans="2:6">
+      <c r="B178" s="6"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="6"/>
+    </row>
+    <row r="179" spans="2:6">
+      <c r="B179" s="6"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="6"/>
+      <c r="E179" s="6"/>
+      <c r="F179" s="6"/>
+    </row>
+    <row r="180" spans="2:6">
+      <c r="B180" s="6"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="6"/>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+    </row>
+    <row r="181" spans="2:6">
+      <c r="B181" s="6"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="6"/>
+      <c r="E181" s="6"/>
+      <c r="F181" s="6"/>
+    </row>
+    <row r="182" spans="2:6">
+      <c r="B182" s="6"/>
+      <c r="C182" s="6"/>
+    </row>
+    <row r="183" spans="2:6">
+      <c r="B183" s="6"/>
+      <c r="C183" s="6"/>
+    </row>
+    <row r="184" spans="2:6">
+      <c r="B184" s="6"/>
+      <c r="C184" s="6"/>
+    </row>
+    <row r="185" spans="2:6">
+      <c r="B185" s="6"/>
+      <c r="C185" s="6"/>
+    </row>
+    <row r="186" spans="2:6">
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
+    </row>
+    <row r="187" spans="2:6">
+      <c r="B187" s="6"/>
+      <c r="C187" s="6"/>
+    </row>
+    <row r="188" spans="2:6">
+      <c r="B188" s="6"/>
+      <c r="C188" s="6"/>
+    </row>
+    <row r="189" spans="2:6">
+      <c r="B189" s="6"/>
+      <c r="C189" s="6"/>
+    </row>
+    <row r="190" spans="2:6">
+      <c r="B190" s="6"/>
+      <c r="C190" s="6"/>
+    </row>
+    <row r="191" spans="2:6">
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+    </row>
+    <row r="192" spans="2:6">
+      <c r="B192" s="6"/>
+      <c r="C192" s="6"/>
+    </row>
+    <row r="193" spans="2:7">
+      <c r="B193" s="6"/>
+      <c r="C193" s="6"/>
+    </row>
+    <row r="194" spans="2:7">
+      <c r="B194" s="6"/>
+      <c r="C194" s="6"/>
+    </row>
+    <row r="195" spans="2:7">
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+    </row>
+    <row r="197" spans="2:7">
+      <c r="B197" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" ht="45">
+      <c r="B198" s="6"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G198" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7">
+      <c r="B199" s="6"/>
+      <c r="C199" s="6"/>
+    </row>
+    <row r="200" spans="2:7">
+      <c r="B200" s="6"/>
+      <c r="C200" s="6"/>
+    </row>
+    <row r="201" spans="2:7">
+      <c r="B201" s="6"/>
+      <c r="C201" s="6"/>
+    </row>
+    <row r="202" spans="2:7">
+      <c r="B202" s="6"/>
+      <c r="C202" s="6"/>
+    </row>
+    <row r="203" spans="2:7">
+      <c r="B203" s="6"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7">
+      <c r="B204" s="6"/>
+      <c r="C204" s="6"/>
+    </row>
+    <row r="205" spans="2:7">
+      <c r="B205" s="6"/>
+      <c r="C205" s="6"/>
+    </row>
+    <row r="206" spans="2:7">
+      <c r="B206" s="6"/>
+      <c r="C206" s="6"/>
+    </row>
+    <row r="207" spans="2:7">
+      <c r="B207" s="6"/>
+      <c r="C207" s="6"/>
+    </row>
+    <row r="208" spans="2:7" ht="30">
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G208" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3">
+      <c r="B209" s="6"/>
+      <c r="C209" s="6"/>
+    </row>
+    <row r="210" spans="2:3">
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
+    </row>
+    <row r="211" spans="2:3">
+      <c r="B211" s="6"/>
+      <c r="C211" s="6"/>
+    </row>
+    <row r="212" spans="2:3">
+      <c r="B212" s="6"/>
+      <c r="C212" s="6"/>
+    </row>
+    <row r="213" spans="2:3">
+      <c r="B213" s="6"/>
+      <c r="C213" s="6"/>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+    </row>
+    <row r="215" spans="2:3">
+      <c r="B215" s="6"/>
+      <c r="C215" s="6"/>
+    </row>
+    <row r="216" spans="2:3">
+      <c r="B216" s="6"/>
+      <c r="C216" s="6"/>
+    </row>
+    <row r="217" spans="2:3">
+      <c r="B217" s="6"/>
+      <c r="C217" s="6"/>
+    </row>
+    <row r="218" spans="2:3">
+      <c r="B218" s="6"/>
+      <c r="C218" s="6"/>
+    </row>
+    <row r="219" spans="2:3">
+      <c r="B219" s="6"/>
+      <c r="C219" s="6"/>
+    </row>
+    <row r="220" spans="2:3">
+      <c r="B220" s="6"/>
+      <c r="C220" s="6"/>
+    </row>
+    <row r="221" spans="2:3">
+      <c r="B221" s="6"/>
+      <c r="C221" s="6"/>
+    </row>
+    <row r="224" spans="2:3">
+      <c r="B224" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7">
+      <c r="B225" s="6"/>
+    </row>
+    <row r="226" spans="2:7">
+      <c r="B226" s="6"/>
+    </row>
+    <row r="227" spans="2:7">
+      <c r="B227" s="6"/>
+    </row>
+    <row r="228" spans="2:7">
+      <c r="B228" s="6"/>
+    </row>
+    <row r="229" spans="2:7">
+      <c r="B229" s="6"/>
+    </row>
+    <row r="230" spans="2:7">
+      <c r="B230" s="6"/>
+    </row>
+    <row r="231" spans="2:7" ht="30">
+      <c r="B231" s="6"/>
+      <c r="D231" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7">
+      <c r="B232" s="6"/>
+    </row>
+    <row r="233" spans="2:7">
+      <c r="B233" s="6"/>
+    </row>
+    <row r="234" spans="2:7">
+      <c r="B234" s="6"/>
+    </row>
+    <row r="235" spans="2:7">
+      <c r="B235" s="6"/>
+    </row>
+    <row r="236" spans="2:7">
+      <c r="B236" s="6"/>
+    </row>
+    <row r="237" spans="2:7">
+      <c r="B237" s="6"/>
+    </row>
+    <row r="238" spans="2:7">
+      <c r="B238" s="6"/>
+    </row>
+    <row r="239" spans="2:7">
+      <c r="B239" s="6"/>
+    </row>
+    <row r="240" spans="2:7">
+      <c r="B240" s="6"/>
+    </row>
+    <row r="241" spans="2:2">
+      <c r="B241" s="6"/>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" s="6"/>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" s="6"/>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" s="6"/>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" s="6"/>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" s="6"/>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C4:C29"/>
-    <mergeCell ref="B4:B29"/>
-    <mergeCell ref="B30:B54"/>
-    <mergeCell ref="D4:D29"/>
-    <mergeCell ref="C30:C54"/>
+  <mergeCells count="24">
+    <mergeCell ref="B224:B247"/>
+    <mergeCell ref="D176:D181"/>
+    <mergeCell ref="E176:E181"/>
+    <mergeCell ref="F176:F181"/>
+    <mergeCell ref="B197:B221"/>
+    <mergeCell ref="C197:C221"/>
+    <mergeCell ref="B125:B149"/>
+    <mergeCell ref="C125:C149"/>
+    <mergeCell ref="B151:B170"/>
+    <mergeCell ref="B172:B195"/>
+    <mergeCell ref="C172:C195"/>
     <mergeCell ref="B56:B77"/>
     <mergeCell ref="C56:C77"/>
     <mergeCell ref="G32:G34"/>
@@ -2150,6 +5279,11 @@
     <mergeCell ref="C79:C99"/>
     <mergeCell ref="F79:F81"/>
     <mergeCell ref="C100:C123"/>
+    <mergeCell ref="C4:C29"/>
+    <mergeCell ref="B4:B29"/>
+    <mergeCell ref="B30:B54"/>
+    <mergeCell ref="D4:D29"/>
+    <mergeCell ref="C30:C54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2161,4 +5295,502 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:R50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.5" style="8" customWidth="1"/>
+    <col min="2" max="18" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:13">
+      <c r="A3" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="7"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="7"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="K10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="7"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="7"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="7"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="7"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="7"/>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="7"/>
+      <c r="J22" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="O25" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="7"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="7"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="7"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="7"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="G33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="2:9">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="2:9">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="2:9">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B41:E50"/>
+    <mergeCell ref="O25:Q29"/>
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="E8:F12"/>
+    <mergeCell ref="K10:M14"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="J22:J27"/>
+    <mergeCell ref="G33:I35"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:S43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" style="10" customWidth="1"/>
+    <col min="2" max="19" width="10.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:16">
+      <c r="A4" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="9"/>
+      <c r="O5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="20" spans="4:18">
+      <c r="M20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" s="9"/>
+    </row>
+    <row r="21" spans="4:18">
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+    </row>
+    <row r="22" spans="4:18">
+      <c r="D22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="4:18">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="4:18">
+      <c r="Q24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="R24" s="9"/>
+    </row>
+    <row r="25" spans="4:18">
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+    </row>
+    <row r="26" spans="4:18">
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+    </row>
+    <row r="27" spans="4:18">
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+    </row>
+    <row r="28" spans="4:18">
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+    </row>
+    <row r="29" spans="4:18">
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+    </row>
+    <row r="30" spans="4:18">
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+    </row>
+    <row r="31" spans="4:18">
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+    </row>
+    <row r="32" spans="4:18">
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="H33" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="G40" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="H33:K36"/>
+    <mergeCell ref="Q24:R33"/>
+    <mergeCell ref="A34:B40"/>
+    <mergeCell ref="G40:H43"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="D22:E23"/>
+    <mergeCell ref="G9:G12"/>
+    <mergeCell ref="K9:K13"/>
+    <mergeCell ref="O5:P16"/>
+    <mergeCell ref="M20:N21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/reference/UIdesign.xlsx
+++ b/reference/UIdesign.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="0" windowWidth="26880" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="3000" yWindow="380" windowWidth="25600" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表2" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="184">
   <si>
     <t>图片</t>
   </si>
@@ -414,6 +414,377 @@
   </si>
   <si>
     <t>为了能点击保存按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转p11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左滑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以前所有保存过的版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示这个版本的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转p12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现删除 可以删除这个版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存的时候输入的title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存的时候所有记事本的title  
+显示不下就用省略号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击删除 就删除这个cell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考p10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认还原版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了左上角的返回 按钮 其他地方都不能点
+如果content多 可以上下滑动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转p13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转p12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么都不做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示黑色的匡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停留在这也 不跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转p14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转p16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色表示 这个提醒已经开始
+就是时间已经到了设置的时间了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左滑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转p17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考p18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会跟着下边的那个调时间的一起变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左滑或者右滑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有键盘的时候
+左滑或者优化 可以让键盘消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果时间比现在的时间早，那么自动调整为10秒后的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑提醒事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考p19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存并自动返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(跳转到p15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是新建过来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变成p17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是编辑过来的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看状态下不能点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变成p16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间参考p16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成
+红色点消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能删除开始并且没有完成的提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击没有开始的项目 没有任何效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始了没完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始并且完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没任何效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t> 提示不能删除
+（参考右边的图）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左滑 右滑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同p16的完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转p8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转p15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转p20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示黑框后自动返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里边的文字一开始就在里边的
+键盘一开始就显示的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +874,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -527,16 +898,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2423,6 +2803,1901 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3145367</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="49606200"/>
+          <a:ext cx="2891367" cy="4337050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1079500</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直线箭头连接符 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1079500" y="52146200"/>
+          <a:ext cx="5575300" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2781300</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直线箭头连接符 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781300" y="52349400"/>
+          <a:ext cx="3848100" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2438400</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直线箭头连接符 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="52666900"/>
+          <a:ext cx="4178300" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直线箭头连接符 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1587500" y="50088800"/>
+          <a:ext cx="5067300" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1663700</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直线箭头连接符 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1663700" y="49682400"/>
+          <a:ext cx="4965700" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3077633</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="图片 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="54203600"/>
+          <a:ext cx="2734733" cy="4102100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>122766</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2832099</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="图片 57"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11311466" y="49441100"/>
+          <a:ext cx="2709333" cy="4064000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>364065</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3174998</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="图片 70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="364065" y="59334400"/>
+          <a:ext cx="2810933" cy="4216400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>440267</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2675467</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="图片 72"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11628967" y="59537600"/>
+          <a:ext cx="2235200" cy="3352800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2730500</xdr:colOff>
+      <xdr:row>273</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直线箭头连接符 74"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2730500" y="55206900"/>
+          <a:ext cx="3937000" cy="101600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2514600</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直线箭头连接符 77"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2514600" y="59944000"/>
+          <a:ext cx="4127500" cy="2705100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2641600</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="直线箭头连接符 79"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2641600" y="60909200"/>
+          <a:ext cx="4013200" cy="2324100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3306233</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="图片 80"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="292100" y="63779400"/>
+          <a:ext cx="3014133" cy="4521200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直线箭头连接符 84"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="952500" y="55968900"/>
+          <a:ext cx="5715000" cy="101600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>296332</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>139699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3251199</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="296332" y="68579999"/>
+          <a:ext cx="2954867" cy="4432301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>97366</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3441699</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="97366" y="73253600"/>
+          <a:ext cx="3344333" cy="5016500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2844800</xdr:colOff>
+      <xdr:row>345</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>345</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直线箭头连接符 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2844800" y="68910200"/>
+          <a:ext cx="3810000" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直线箭头连接符 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="393700" y="69329300"/>
+          <a:ext cx="6223000" cy="50800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1714500</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直线箭头连接符 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="70129400"/>
+          <a:ext cx="4864100" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1701800</xdr:colOff>
+      <xdr:row>349</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直线箭头连接符 48"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1701800" y="70256400"/>
+          <a:ext cx="4927600" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>224366</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>292099</xdr:colOff>
+      <xdr:row>441</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="图片 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11413066" y="84150200"/>
+          <a:ext cx="3064933" cy="4597400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>232833</xdr:colOff>
+      <xdr:row>421</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3365500</xdr:colOff>
+      <xdr:row>443</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="图片 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="232833" y="83426300"/>
+          <a:ext cx="3132667" cy="4699000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182033</xdr:colOff>
+      <xdr:row>395</xdr:row>
+      <xdr:rowOff>82548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3403600</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="图片 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="182033" y="79000348"/>
+          <a:ext cx="3221567" cy="4832351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>370</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直线箭头连接符 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1905000" y="74066400"/>
+          <a:ext cx="4838700" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1651000</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直线箭头连接符 69"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1651000" y="74650600"/>
+          <a:ext cx="4991100" cy="584200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>378</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>379</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直线箭头连接符 75"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1562100" y="76085700"/>
+          <a:ext cx="5270500" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1701800</xdr:colOff>
+      <xdr:row>386</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>389</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直线箭头连接符 78"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1701800" y="77635100"/>
+          <a:ext cx="5080000" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1752600</xdr:colOff>
+      <xdr:row>374</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直线箭头连接符 83"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1752600" y="75006200"/>
+          <a:ext cx="4927600" cy="635000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>334433</xdr:colOff>
+      <xdr:row>447</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3136899</xdr:colOff>
+      <xdr:row>469</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="图片 86"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="334433" y="89865200"/>
+          <a:ext cx="2802466" cy="4203700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2908300</xdr:colOff>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直线箭头连接符 89"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2908300" y="74358500"/>
+          <a:ext cx="3708400" cy="4521200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3098800</xdr:colOff>
+      <xdr:row>396</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>397</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直线箭头连接符 91"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3098800" y="79578200"/>
+          <a:ext cx="3644900" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2082800</xdr:colOff>
+      <xdr:row>401</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="直线箭头连接符 93"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2082800" y="80568800"/>
+          <a:ext cx="4610100" cy="1384300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>397</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>401</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直线箭头连接符 95"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="79806800"/>
+          <a:ext cx="4851400" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3086100</xdr:colOff>
+      <xdr:row>422</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直线箭头连接符 97"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3086100" y="84543900"/>
+          <a:ext cx="3632200" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2413000</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>428</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="直线箭头连接符 99"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2413000" y="85255100"/>
+          <a:ext cx="4267200" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2832100</xdr:colOff>
+      <xdr:row>448</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>449</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="直线箭头连接符 103"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2832100" y="90068400"/>
+          <a:ext cx="3962400" cy="139700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1803400</xdr:colOff>
+      <xdr:row>452</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>455</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="直线箭头连接符 105"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1803400" y="90817700"/>
+          <a:ext cx="4838700" cy="558800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2247900</xdr:colOff>
+      <xdr:row>457</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>458</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="直线箭头连接符 107"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2247900" y="91770200"/>
+          <a:ext cx="4457700" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>224367</xdr:colOff>
+      <xdr:row>471</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3128433</xdr:colOff>
+      <xdr:row>492</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="图片 108"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="224367" y="94399100"/>
+          <a:ext cx="2904066" cy="4356100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2768600</xdr:colOff>
+      <xdr:row>472</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>473</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="111" name="直线箭头连接符 110"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2768600" y="94653100"/>
+          <a:ext cx="3924300" cy="127000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:row>476</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>477</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="直线箭头连接符 112"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2171700" y="95580200"/>
+          <a:ext cx="4610100" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165099</xdr:colOff>
+      <xdr:row>469</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2806699</xdr:colOff>
+      <xdr:row>488</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="图片 114"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11353799" y="94094300"/>
+          <a:ext cx="2641600" cy="3962400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4030,22 +6305,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G247"/>
+  <dimension ref="A1:G494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G225" sqref="G225"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E471" sqref="E471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="46.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="19" style="4" customWidth="1"/>
-    <col min="7" max="7" width="39.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19" style="6" customWidth="1"/>
+    <col min="7" max="7" width="39.33203125" style="6" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -4079,1187 +6354,2472 @@
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="4" t="s">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="4" t="s">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="6"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" spans="2:7" ht="30">
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="4" t="s">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="4" t="s">
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
     </row>
     <row r="58" spans="2:6" ht="30">
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="4" t="s">
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="59" spans="2:6">
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
     </row>
     <row r="61" spans="2:6">
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="4" t="s">
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
     </row>
     <row r="63" spans="2:6">
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="4" t="s">
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
     </row>
     <row r="67" spans="2:6">
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
     </row>
     <row r="69" spans="2:6">
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
     </row>
     <row r="72" spans="2:6">
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
     </row>
     <row r="74" spans="2:6">
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
     </row>
     <row r="76" spans="2:6">
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D79" s="4" t="s">
+      <c r="D79" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F79" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="80" spans="2:6">
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="F80" s="6"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="F80" s="11"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="4" t="s">
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F81" s="6"/>
+      <c r="F81" s="11"/>
     </row>
     <row r="82" spans="2:6">
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
     </row>
     <row r="84" spans="2:6" ht="30">
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="4" t="s">
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="85" spans="2:6">
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
     </row>
     <row r="86" spans="2:6">
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
     </row>
     <row r="87" spans="2:6">
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="4" t="s">
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="88" spans="2:6">
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
     </row>
     <row r="89" spans="2:6">
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
     </row>
     <row r="90" spans="2:6" ht="30">
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="4" t="s">
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="E90" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="91" spans="2:6">
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
     </row>
     <row r="92" spans="2:6">
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
     </row>
     <row r="93" spans="2:6">
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
     </row>
     <row r="94" spans="2:6">
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
     </row>
     <row r="95" spans="2:6">
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
     </row>
     <row r="96" spans="2:6">
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
     </row>
     <row r="97" spans="2:3">
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
     </row>
     <row r="98" spans="2:3">
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
     </row>
     <row r="99" spans="2:3">
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
     </row>
     <row r="100" spans="2:3">
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="11" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="101" spans="2:3">
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
     </row>
     <row r="102" spans="2:3">
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
     </row>
     <row r="103" spans="2:3">
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
     </row>
     <row r="104" spans="2:3">
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
     </row>
     <row r="105" spans="2:3">
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
     </row>
     <row r="106" spans="2:3">
-      <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
     </row>
     <row r="107" spans="2:3">
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
     </row>
     <row r="108" spans="2:3">
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
     </row>
     <row r="109" spans="2:3">
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
     </row>
     <row r="110" spans="2:3">
-      <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
     </row>
     <row r="111" spans="2:3">
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
     </row>
     <row r="112" spans="2:3">
-      <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
     </row>
     <row r="113" spans="2:6">
-      <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
     </row>
     <row r="114" spans="2:6">
-      <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
     </row>
     <row r="115" spans="2:6">
-      <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
     </row>
     <row r="116" spans="2:6">
-      <c r="B116" s="6"/>
-      <c r="C116" s="6"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
     </row>
     <row r="117" spans="2:6">
-      <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
     </row>
     <row r="118" spans="2:6">
-      <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
     </row>
     <row r="119" spans="2:6">
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
     </row>
     <row r="120" spans="2:6">
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
     </row>
     <row r="121" spans="2:6">
-      <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
     </row>
     <row r="122" spans="2:6">
-      <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
     </row>
     <row r="123" spans="2:6">
-      <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
     </row>
     <row r="125" spans="2:6">
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="C125" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="D125" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E125" s="4" t="s">
+      <c r="E125" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F125" s="11" t="s">
+      <c r="F125" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="126" spans="2:6">
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
     </row>
     <row r="127" spans="2:6">
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="4" t="s">
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="E127" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="128" spans="2:6">
-      <c r="B128" s="6"/>
-      <c r="C128" s="6"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
     </row>
     <row r="129" spans="2:5">
-      <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="4" t="s">
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E129" s="4" t="s">
+      <c r="E129" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="130" spans="2:5">
-      <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
     </row>
     <row r="131" spans="2:5">
-      <c r="B131" s="6"/>
-      <c r="C131" s="6"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="132" spans="2:5">
-      <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
     </row>
     <row r="133" spans="2:5">
-      <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="134" spans="2:5">
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
     </row>
     <row r="135" spans="2:5">
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="136" spans="2:5">
-      <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
     </row>
     <row r="137" spans="2:5">
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
     </row>
     <row r="138" spans="2:5">
-      <c r="B138" s="6"/>
-      <c r="C138" s="6"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
     </row>
     <row r="139" spans="2:5">
-      <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
     </row>
     <row r="140" spans="2:5">
-      <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
     </row>
     <row r="141" spans="2:5">
-      <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
     </row>
     <row r="142" spans="2:5">
-      <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
     </row>
     <row r="143" spans="2:5">
-      <c r="B143" s="6"/>
-      <c r="C143" s="6"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
     </row>
     <row r="144" spans="2:5">
-      <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
     </row>
     <row r="145" spans="2:6">
-      <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
     </row>
     <row r="146" spans="2:6">
-      <c r="B146" s="6"/>
-      <c r="C146" s="6"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
     </row>
     <row r="147" spans="2:6">
-      <c r="B147" s="6"/>
-      <c r="C147" s="6"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
     </row>
     <row r="148" spans="2:6">
-      <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
     </row>
     <row r="149" spans="2:6">
-      <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
     </row>
     <row r="150" spans="2:6">
-      <c r="D150" s="4" t="s">
+      <c r="D150" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E150" s="4" t="s">
+      <c r="E150" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F150" s="11" t="s">
+      <c r="F150" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="151" spans="2:6">
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="152" spans="2:6">
-      <c r="B152" s="6"/>
-      <c r="D152" s="4" t="s">
+      <c r="B152" s="11"/>
+      <c r="D152" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E152" s="4" t="s">
+      <c r="E152" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="153" spans="2:6">
-      <c r="B153" s="6"/>
+      <c r="B153" s="11"/>
     </row>
     <row r="154" spans="2:6" ht="75">
-      <c r="B154" s="6"/>
-      <c r="D154" s="4" t="s">
+      <c r="B154" s="11"/>
+      <c r="D154" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E154" s="4" t="s">
+      <c r="E154" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F154" s="4" t="s">
+      <c r="F154" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="155" spans="2:6">
-      <c r="B155" s="6"/>
+      <c r="B155" s="11"/>
     </row>
     <row r="156" spans="2:6">
-      <c r="B156" s="6"/>
+      <c r="B156" s="11"/>
+      <c r="D156" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="157" spans="2:6">
-      <c r="B157" s="6"/>
+      <c r="B157" s="11"/>
     </row>
     <row r="158" spans="2:6">
-      <c r="B158" s="6"/>
+      <c r="B158" s="11"/>
     </row>
     <row r="159" spans="2:6">
-      <c r="B159" s="6"/>
+      <c r="B159" s="11"/>
     </row>
     <row r="160" spans="2:6">
-      <c r="B160" s="6"/>
+      <c r="B160" s="11"/>
     </row>
     <row r="161" spans="2:6">
-      <c r="B161" s="6"/>
+      <c r="B161" s="11"/>
     </row>
     <row r="162" spans="2:6">
-      <c r="B162" s="6"/>
+      <c r="B162" s="11"/>
     </row>
     <row r="163" spans="2:6">
-      <c r="B163" s="6"/>
+      <c r="B163" s="11"/>
     </row>
     <row r="164" spans="2:6">
-      <c r="B164" s="6"/>
+      <c r="B164" s="11"/>
     </row>
     <row r="165" spans="2:6">
-      <c r="B165" s="6"/>
+      <c r="B165" s="11"/>
     </row>
     <row r="166" spans="2:6">
-      <c r="B166" s="6"/>
+      <c r="B166" s="11"/>
     </row>
     <row r="167" spans="2:6">
-      <c r="B167" s="6"/>
+      <c r="B167" s="11"/>
     </row>
     <row r="168" spans="2:6">
-      <c r="B168" s="6"/>
+      <c r="B168" s="11"/>
     </row>
     <row r="169" spans="2:6">
-      <c r="B169" s="6"/>
+      <c r="B169" s="11"/>
     </row>
     <row r="170" spans="2:6">
-      <c r="B170" s="6"/>
+      <c r="B170" s="11"/>
     </row>
     <row r="171" spans="2:6">
       <c r="B171" s="5"/>
     </row>
     <row r="172" spans="2:6">
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C172" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="173" spans="2:6">
-      <c r="B173" s="6"/>
-      <c r="C173" s="6"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="11"/>
     </row>
     <row r="174" spans="2:6">
-      <c r="B174" s="6"/>
-      <c r="C174" s="6"/>
+      <c r="B174" s="11"/>
+      <c r="C174" s="11"/>
     </row>
     <row r="175" spans="2:6">
-      <c r="B175" s="6"/>
-      <c r="C175" s="6"/>
+      <c r="B175" s="11"/>
+      <c r="C175" s="11"/>
     </row>
     <row r="176" spans="2:6">
-      <c r="B176" s="6"/>
-      <c r="C176" s="6"/>
-      <c r="D176" s="6" t="s">
+      <c r="B176" s="11"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E176" s="6" t="s">
+      <c r="E176" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F176" s="6" t="s">
+      <c r="F176" s="11" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="177" spans="2:6">
-      <c r="B177" s="6"/>
-      <c r="C177" s="6"/>
-      <c r="D177" s="6"/>
-      <c r="E177" s="6"/>
-      <c r="F177" s="6"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="11"/>
+      <c r="E177" s="11"/>
+      <c r="F177" s="11"/>
     </row>
     <row r="178" spans="2:6">
-      <c r="B178" s="6"/>
-      <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-      <c r="E178" s="6"/>
-      <c r="F178" s="6"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
     </row>
     <row r="179" spans="2:6">
-      <c r="B179" s="6"/>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6"/>
-      <c r="F179" s="6"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
     </row>
     <row r="180" spans="2:6">
-      <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="6"/>
-      <c r="F180" s="6"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
     </row>
     <row r="181" spans="2:6">
-      <c r="B181" s="6"/>
-      <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
-      <c r="E181" s="6"/>
-      <c r="F181" s="6"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+      <c r="E181" s="11"/>
+      <c r="F181" s="11"/>
     </row>
     <row r="182" spans="2:6">
-      <c r="B182" s="6"/>
-      <c r="C182" s="6"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="11"/>
     </row>
     <row r="183" spans="2:6">
-      <c r="B183" s="6"/>
-      <c r="C183" s="6"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="11"/>
     </row>
     <row r="184" spans="2:6">
-      <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
+      <c r="B184" s="11"/>
+      <c r="C184" s="11"/>
     </row>
     <row r="185" spans="2:6">
-      <c r="B185" s="6"/>
-      <c r="C185" s="6"/>
+      <c r="B185" s="11"/>
+      <c r="C185" s="11"/>
     </row>
     <row r="186" spans="2:6">
-      <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
+      <c r="B186" s="11"/>
+      <c r="C186" s="11"/>
     </row>
     <row r="187" spans="2:6">
-      <c r="B187" s="6"/>
-      <c r="C187" s="6"/>
+      <c r="B187" s="11"/>
+      <c r="C187" s="11"/>
     </row>
     <row r="188" spans="2:6">
-      <c r="B188" s="6"/>
-      <c r="C188" s="6"/>
+      <c r="B188" s="11"/>
+      <c r="C188" s="11"/>
     </row>
     <row r="189" spans="2:6">
-      <c r="B189" s="6"/>
-      <c r="C189" s="6"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="11"/>
     </row>
     <row r="190" spans="2:6">
-      <c r="B190" s="6"/>
-      <c r="C190" s="6"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="11"/>
     </row>
     <row r="191" spans="2:6">
-      <c r="B191" s="6"/>
-      <c r="C191" s="6"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="11"/>
     </row>
     <row r="192" spans="2:6">
-      <c r="B192" s="6"/>
-      <c r="C192" s="6"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="11"/>
     </row>
     <row r="193" spans="2:7">
-      <c r="B193" s="6"/>
-      <c r="C193" s="6"/>
+      <c r="B193" s="11"/>
+      <c r="C193" s="11"/>
     </row>
     <row r="194" spans="2:7">
-      <c r="B194" s="6"/>
-      <c r="C194" s="6"/>
+      <c r="B194" s="11"/>
+      <c r="C194" s="11"/>
     </row>
     <row r="195" spans="2:7">
-      <c r="B195" s="6"/>
-      <c r="C195" s="6"/>
+      <c r="B195" s="11"/>
+      <c r="C195" s="11"/>
     </row>
     <row r="197" spans="2:7">
-      <c r="B197" s="6" t="s">
+      <c r="B197" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C197" s="6" t="s">
+      <c r="C197" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="198" spans="2:7" ht="45">
-      <c r="B198" s="6"/>
-      <c r="C198" s="6"/>
-      <c r="D198" s="4" t="s">
+      <c r="B198" s="11"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F198" s="4" t="s">
+      <c r="F198" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G198" s="4" t="s">
+      <c r="G198" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="199" spans="2:7">
-      <c r="B199" s="6"/>
-      <c r="C199" s="6"/>
+      <c r="B199" s="11"/>
+      <c r="C199" s="11"/>
     </row>
     <row r="200" spans="2:7">
-      <c r="B200" s="6"/>
-      <c r="C200" s="6"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="11"/>
     </row>
     <row r="201" spans="2:7">
-      <c r="B201" s="6"/>
-      <c r="C201" s="6"/>
+      <c r="B201" s="11"/>
+      <c r="C201" s="11"/>
     </row>
     <row r="202" spans="2:7">
-      <c r="B202" s="6"/>
-      <c r="C202" s="6"/>
+      <c r="B202" s="11"/>
+      <c r="C202" s="11"/>
     </row>
     <row r="203" spans="2:7">
-      <c r="B203" s="6"/>
-      <c r="C203" s="6"/>
-      <c r="D203" s="4" t="s">
+      <c r="B203" s="11"/>
+      <c r="C203" s="11"/>
+      <c r="D203" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E203" s="4" t="s">
+      <c r="E203" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="204" spans="2:7">
-      <c r="B204" s="6"/>
-      <c r="C204" s="6"/>
+      <c r="B204" s="11"/>
+      <c r="C204" s="11"/>
     </row>
     <row r="205" spans="2:7">
-      <c r="B205" s="6"/>
-      <c r="C205" s="6"/>
+      <c r="B205" s="11"/>
+      <c r="C205" s="11"/>
     </row>
     <row r="206" spans="2:7">
-      <c r="B206" s="6"/>
-      <c r="C206" s="6"/>
+      <c r="B206" s="11"/>
+      <c r="C206" s="11"/>
     </row>
     <row r="207" spans="2:7">
-      <c r="B207" s="6"/>
-      <c r="C207" s="6"/>
+      <c r="B207" s="11"/>
+      <c r="C207" s="11"/>
     </row>
     <row r="208" spans="2:7" ht="30">
-      <c r="B208" s="6"/>
-      <c r="C208" s="6"/>
-      <c r="D208" s="4" t="s">
+      <c r="B208" s="11"/>
+      <c r="C208" s="11"/>
+      <c r="D208" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E208" s="4" t="s">
+      <c r="E208" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G208" s="4" t="s">
+      <c r="G208" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="209" spans="2:3">
-      <c r="B209" s="6"/>
-      <c r="C209" s="6"/>
+      <c r="B209" s="11"/>
+      <c r="C209" s="11"/>
     </row>
     <row r="210" spans="2:3">
-      <c r="B210" s="6"/>
-      <c r="C210" s="6"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="11"/>
     </row>
     <row r="211" spans="2:3">
-      <c r="B211" s="6"/>
-      <c r="C211" s="6"/>
+      <c r="B211" s="11"/>
+      <c r="C211" s="11"/>
     </row>
     <row r="212" spans="2:3">
-      <c r="B212" s="6"/>
-      <c r="C212" s="6"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="11"/>
     </row>
     <row r="213" spans="2:3">
-      <c r="B213" s="6"/>
-      <c r="C213" s="6"/>
+      <c r="B213" s="11"/>
+      <c r="C213" s="11"/>
     </row>
     <row r="214" spans="2:3">
-      <c r="B214" s="6"/>
-      <c r="C214" s="6"/>
+      <c r="B214" s="11"/>
+      <c r="C214" s="11"/>
     </row>
     <row r="215" spans="2:3">
-      <c r="B215" s="6"/>
-      <c r="C215" s="6"/>
+      <c r="B215" s="11"/>
+      <c r="C215" s="11"/>
     </row>
     <row r="216" spans="2:3">
-      <c r="B216" s="6"/>
-      <c r="C216" s="6"/>
+      <c r="B216" s="11"/>
+      <c r="C216" s="11"/>
     </row>
     <row r="217" spans="2:3">
-      <c r="B217" s="6"/>
-      <c r="C217" s="6"/>
+      <c r="B217" s="11"/>
+      <c r="C217" s="11"/>
     </row>
     <row r="218" spans="2:3">
-      <c r="B218" s="6"/>
-      <c r="C218" s="6"/>
+      <c r="B218" s="11"/>
+      <c r="C218" s="11"/>
     </row>
     <row r="219" spans="2:3">
-      <c r="B219" s="6"/>
-      <c r="C219" s="6"/>
+      <c r="B219" s="11"/>
+      <c r="C219" s="11"/>
     </row>
     <row r="220" spans="2:3">
-      <c r="B220" s="6"/>
-      <c r="C220" s="6"/>
+      <c r="B220" s="11"/>
+      <c r="C220" s="11"/>
     </row>
     <row r="221" spans="2:3">
-      <c r="B221" s="6"/>
-      <c r="C221" s="6"/>
+      <c r="B221" s="11"/>
+      <c r="C221" s="11"/>
     </row>
     <row r="224" spans="2:3">
-      <c r="B224" s="6" t="s">
+      <c r="B224" s="11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="225" spans="2:7">
-      <c r="B225" s="6"/>
+      <c r="B225" s="11"/>
     </row>
     <row r="226" spans="2:7">
-      <c r="B226" s="6"/>
+      <c r="B226" s="11"/>
     </row>
     <row r="227" spans="2:7">
-      <c r="B227" s="6"/>
+      <c r="B227" s="11"/>
     </row>
     <row r="228" spans="2:7">
-      <c r="B228" s="6"/>
+      <c r="B228" s="11"/>
     </row>
     <row r="229" spans="2:7">
-      <c r="B229" s="6"/>
+      <c r="B229" s="11"/>
     </row>
     <row r="230" spans="2:7">
-      <c r="B230" s="6"/>
+      <c r="B230" s="11"/>
     </row>
     <row r="231" spans="2:7" ht="30">
-      <c r="B231" s="6"/>
-      <c r="D231" s="4" t="s">
+      <c r="B231" s="11"/>
+      <c r="D231" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E231" s="4" t="s">
+      <c r="E231" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="F231" s="4" t="s">
+      <c r="F231" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G231" s="4" t="s">
+      <c r="G231" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="232" spans="2:7">
-      <c r="B232" s="6"/>
+      <c r="B232" s="11"/>
     </row>
     <row r="233" spans="2:7">
-      <c r="B233" s="6"/>
+      <c r="B233" s="11"/>
     </row>
     <row r="234" spans="2:7">
-      <c r="B234" s="6"/>
+      <c r="B234" s="11"/>
     </row>
     <row r="235" spans="2:7">
-      <c r="B235" s="6"/>
+      <c r="B235" s="11"/>
     </row>
     <row r="236" spans="2:7">
-      <c r="B236" s="6"/>
+      <c r="B236" s="11"/>
     </row>
     <row r="237" spans="2:7">
-      <c r="B237" s="6"/>
+      <c r="B237" s="11"/>
     </row>
     <row r="238" spans="2:7">
-      <c r="B238" s="6"/>
+      <c r="B238" s="11"/>
     </row>
     <row r="239" spans="2:7">
-      <c r="B239" s="6"/>
+      <c r="B239" s="11"/>
     </row>
     <row r="240" spans="2:7">
-      <c r="B240" s="6"/>
-    </row>
-    <row r="241" spans="2:2">
-      <c r="B241" s="6"/>
-    </row>
-    <row r="242" spans="2:2">
-      <c r="B242" s="6"/>
-    </row>
-    <row r="243" spans="2:2">
-      <c r="B243" s="6"/>
-    </row>
-    <row r="244" spans="2:2">
-      <c r="B244" s="6"/>
-    </row>
-    <row r="245" spans="2:2">
-      <c r="B245" s="6"/>
-    </row>
-    <row r="246" spans="2:2">
-      <c r="B246" s="6"/>
-    </row>
-    <row r="247" spans="2:2">
-      <c r="B247" s="6"/>
+      <c r="B240" s="11"/>
+    </row>
+    <row r="241" spans="2:6">
+      <c r="B241" s="11"/>
+    </row>
+    <row r="242" spans="2:6">
+      <c r="B242" s="11"/>
+    </row>
+    <row r="243" spans="2:6">
+      <c r="B243" s="11"/>
+    </row>
+    <row r="244" spans="2:6">
+      <c r="B244" s="11"/>
+    </row>
+    <row r="245" spans="2:6">
+      <c r="B245" s="11"/>
+    </row>
+    <row r="246" spans="2:6">
+      <c r="B246" s="11"/>
+    </row>
+    <row r="247" spans="2:6">
+      <c r="B247" s="11"/>
+    </row>
+    <row r="249" spans="2:6">
+      <c r="B249" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C249" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D249" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E249" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="250" spans="2:6">
+      <c r="B250" s="11"/>
+      <c r="C250" s="11"/>
+    </row>
+    <row r="251" spans="2:6" ht="30">
+      <c r="B251" s="11"/>
+      <c r="C251" s="11"/>
+      <c r="D251" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E251" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F251" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="252" spans="2:6">
+      <c r="B252" s="11"/>
+      <c r="C252" s="11"/>
+    </row>
+    <row r="253" spans="2:6">
+      <c r="B253" s="11"/>
+      <c r="C253" s="11"/>
+    </row>
+    <row r="254" spans="2:6">
+      <c r="B254" s="11"/>
+      <c r="C254" s="11"/>
+    </row>
+    <row r="255" spans="2:6">
+      <c r="B255" s="11"/>
+      <c r="C255" s="11"/>
+    </row>
+    <row r="256" spans="2:6">
+      <c r="B256" s="11"/>
+      <c r="C256" s="11"/>
+    </row>
+    <row r="257" spans="2:6">
+      <c r="B257" s="11"/>
+      <c r="C257" s="11"/>
+    </row>
+    <row r="258" spans="2:6">
+      <c r="B258" s="11"/>
+      <c r="C258" s="11"/>
+    </row>
+    <row r="259" spans="2:6">
+      <c r="B259" s="11"/>
+      <c r="C259" s="11"/>
+    </row>
+    <row r="260" spans="2:6">
+      <c r="B260" s="11"/>
+      <c r="C260" s="11"/>
+    </row>
+    <row r="261" spans="2:6" ht="30">
+      <c r="B261" s="11"/>
+      <c r="C261" s="11"/>
+      <c r="D261" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E261" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F261" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="262" spans="2:6">
+      <c r="B262" s="11"/>
+      <c r="C262" s="11"/>
+    </row>
+    <row r="263" spans="2:6">
+      <c r="B263" s="11"/>
+      <c r="C263" s="11"/>
+      <c r="D263" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E263" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="264" spans="2:6">
+      <c r="B264" s="11"/>
+      <c r="C264" s="11"/>
+    </row>
+    <row r="265" spans="2:6" ht="45">
+      <c r="B265" s="11"/>
+      <c r="C265" s="11"/>
+      <c r="D265" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E265" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="266" spans="2:6">
+      <c r="B266" s="11"/>
+      <c r="C266" s="11"/>
+    </row>
+    <row r="267" spans="2:6">
+      <c r="B267" s="11"/>
+      <c r="C267" s="11"/>
+    </row>
+    <row r="268" spans="2:6">
+      <c r="B268" s="11"/>
+      <c r="C268" s="11"/>
+    </row>
+    <row r="269" spans="2:6">
+      <c r="B269" s="11"/>
+      <c r="C269" s="11"/>
+    </row>
+    <row r="270" spans="2:6">
+      <c r="B270" s="11"/>
+      <c r="C270" s="11"/>
+    </row>
+    <row r="271" spans="2:6">
+      <c r="B271" s="11"/>
+      <c r="C271" s="11"/>
+    </row>
+    <row r="273" spans="2:5">
+      <c r="B273" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C273" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="274" spans="2:5">
+      <c r="B274" s="11"/>
+      <c r="C274" s="11"/>
+      <c r="D274" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E274" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="275" spans="2:5">
+      <c r="B275" s="11"/>
+      <c r="C275" s="11"/>
+    </row>
+    <row r="276" spans="2:5">
+      <c r="B276" s="11"/>
+      <c r="C276" s="11"/>
+    </row>
+    <row r="277" spans="2:5">
+      <c r="B277" s="11"/>
+      <c r="C277" s="11"/>
+    </row>
+    <row r="278" spans="2:5">
+      <c r="B278" s="11"/>
+      <c r="C278" s="11"/>
+      <c r="D278" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E278" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5">
+      <c r="B279" s="11"/>
+      <c r="C279" s="11"/>
+    </row>
+    <row r="280" spans="2:5">
+      <c r="B280" s="11"/>
+      <c r="C280" s="11"/>
+    </row>
+    <row r="281" spans="2:5">
+      <c r="B281" s="11"/>
+      <c r="C281" s="11"/>
+    </row>
+    <row r="282" spans="2:5">
+      <c r="B282" s="11"/>
+      <c r="C282" s="11"/>
+    </row>
+    <row r="283" spans="2:5">
+      <c r="B283" s="11"/>
+      <c r="C283" s="11"/>
+    </row>
+    <row r="284" spans="2:5">
+      <c r="B284" s="11"/>
+      <c r="C284" s="11"/>
+    </row>
+    <row r="285" spans="2:5">
+      <c r="B285" s="11"/>
+      <c r="C285" s="11"/>
+    </row>
+    <row r="286" spans="2:5">
+      <c r="B286" s="11"/>
+      <c r="C286" s="11"/>
+    </row>
+    <row r="287" spans="2:5">
+      <c r="B287" s="11"/>
+      <c r="C287" s="11"/>
+    </row>
+    <row r="288" spans="2:5">
+      <c r="B288" s="11"/>
+      <c r="C288" s="11"/>
+    </row>
+    <row r="289" spans="2:6">
+      <c r="B289" s="11"/>
+      <c r="C289" s="11"/>
+    </row>
+    <row r="290" spans="2:6">
+      <c r="B290" s="11"/>
+      <c r="C290" s="11"/>
+    </row>
+    <row r="291" spans="2:6">
+      <c r="B291" s="11"/>
+      <c r="C291" s="11"/>
+    </row>
+    <row r="292" spans="2:6">
+      <c r="B292" s="11"/>
+      <c r="C292" s="11"/>
+    </row>
+    <row r="293" spans="2:6">
+      <c r="B293" s="11"/>
+      <c r="C293" s="11"/>
+    </row>
+    <row r="294" spans="2:6">
+      <c r="B294" s="11"/>
+      <c r="C294" s="11"/>
+    </row>
+    <row r="296" spans="2:6">
+      <c r="B296" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C296" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="297" spans="2:6">
+      <c r="B297" s="11"/>
+      <c r="C297" s="11"/>
+    </row>
+    <row r="298" spans="2:6">
+      <c r="B298" s="11"/>
+      <c r="C298" s="11"/>
+    </row>
+    <row r="299" spans="2:6">
+      <c r="B299" s="11"/>
+      <c r="C299" s="11"/>
+      <c r="D299" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E299" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F299" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="300" spans="2:6">
+      <c r="B300" s="11"/>
+      <c r="C300" s="11"/>
+    </row>
+    <row r="301" spans="2:6">
+      <c r="B301" s="11"/>
+      <c r="C301" s="11"/>
+    </row>
+    <row r="302" spans="2:6">
+      <c r="B302" s="11"/>
+      <c r="C302" s="11"/>
+    </row>
+    <row r="303" spans="2:6">
+      <c r="B303" s="11"/>
+      <c r="C303" s="11"/>
+    </row>
+    <row r="304" spans="2:6">
+      <c r="B304" s="11"/>
+      <c r="C304" s="11"/>
+      <c r="D304" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E304" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F304" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3">
+      <c r="B305" s="11"/>
+      <c r="C305" s="11"/>
+    </row>
+    <row r="306" spans="2:3">
+      <c r="B306" s="11"/>
+      <c r="C306" s="11"/>
+    </row>
+    <row r="307" spans="2:3">
+      <c r="B307" s="11"/>
+      <c r="C307" s="11"/>
+    </row>
+    <row r="308" spans="2:3">
+      <c r="B308" s="11"/>
+      <c r="C308" s="11"/>
+    </row>
+    <row r="309" spans="2:3">
+      <c r="B309" s="11"/>
+      <c r="C309" s="11"/>
+    </row>
+    <row r="310" spans="2:3">
+      <c r="B310" s="11"/>
+      <c r="C310" s="11"/>
+    </row>
+    <row r="311" spans="2:3">
+      <c r="B311" s="11"/>
+      <c r="C311" s="11"/>
+    </row>
+    <row r="312" spans="2:3">
+      <c r="B312" s="11"/>
+      <c r="C312" s="11"/>
+    </row>
+    <row r="313" spans="2:3">
+      <c r="B313" s="11"/>
+      <c r="C313" s="11"/>
+    </row>
+    <row r="314" spans="2:3">
+      <c r="B314" s="11"/>
+      <c r="C314" s="11"/>
+    </row>
+    <row r="315" spans="2:3">
+      <c r="B315" s="11"/>
+      <c r="C315" s="11"/>
+    </row>
+    <row r="316" spans="2:3">
+      <c r="B316" s="11"/>
+      <c r="C316" s="11"/>
+    </row>
+    <row r="317" spans="2:3">
+      <c r="B317" s="11"/>
+      <c r="C317" s="11"/>
+    </row>
+    <row r="318" spans="2:3">
+      <c r="B318" s="11"/>
+      <c r="C318" s="11"/>
+    </row>
+    <row r="320" spans="2:3">
+      <c r="B320" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C320" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3">
+      <c r="B321" s="11"/>
+      <c r="C321" s="11"/>
+    </row>
+    <row r="322" spans="2:3">
+      <c r="B322" s="11"/>
+      <c r="C322" s="11"/>
+    </row>
+    <row r="323" spans="2:3">
+      <c r="B323" s="11"/>
+      <c r="C323" s="11"/>
+    </row>
+    <row r="324" spans="2:3">
+      <c r="B324" s="11"/>
+      <c r="C324" s="11"/>
+    </row>
+    <row r="325" spans="2:3">
+      <c r="B325" s="11"/>
+      <c r="C325" s="11"/>
+    </row>
+    <row r="326" spans="2:3">
+      <c r="B326" s="11"/>
+      <c r="C326" s="11"/>
+    </row>
+    <row r="327" spans="2:3">
+      <c r="B327" s="11"/>
+      <c r="C327" s="11"/>
+    </row>
+    <row r="328" spans="2:3">
+      <c r="B328" s="11"/>
+      <c r="C328" s="11"/>
+    </row>
+    <row r="329" spans="2:3">
+      <c r="B329" s="11"/>
+      <c r="C329" s="11"/>
+    </row>
+    <row r="330" spans="2:3">
+      <c r="B330" s="11"/>
+      <c r="C330" s="11"/>
+    </row>
+    <row r="331" spans="2:3">
+      <c r="B331" s="11"/>
+      <c r="C331" s="11"/>
+    </row>
+    <row r="332" spans="2:3">
+      <c r="B332" s="11"/>
+      <c r="C332" s="11"/>
+    </row>
+    <row r="333" spans="2:3">
+      <c r="B333" s="11"/>
+      <c r="C333" s="11"/>
+    </row>
+    <row r="334" spans="2:3">
+      <c r="B334" s="11"/>
+      <c r="C334" s="11"/>
+    </row>
+    <row r="335" spans="2:3">
+      <c r="B335" s="11"/>
+      <c r="C335" s="11"/>
+    </row>
+    <row r="336" spans="2:3">
+      <c r="B336" s="11"/>
+      <c r="C336" s="11"/>
+    </row>
+    <row r="337" spans="2:6">
+      <c r="B337" s="11"/>
+      <c r="C337" s="11"/>
+    </row>
+    <row r="338" spans="2:6">
+      <c r="B338" s="11"/>
+      <c r="C338" s="11"/>
+    </row>
+    <row r="339" spans="2:6">
+      <c r="B339" s="11"/>
+      <c r="C339" s="11"/>
+    </row>
+    <row r="340" spans="2:6">
+      <c r="B340" s="11"/>
+      <c r="C340" s="11"/>
+    </row>
+    <row r="341" spans="2:6">
+      <c r="B341" s="11"/>
+      <c r="C341" s="11"/>
+    </row>
+    <row r="345" spans="2:6">
+      <c r="B345" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C345" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="346" spans="2:6">
+      <c r="B346" s="11"/>
+      <c r="C346" s="11"/>
+      <c r="D346" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E346" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="347" spans="2:6">
+      <c r="B347" s="11"/>
+      <c r="C347" s="11"/>
+    </row>
+    <row r="348" spans="2:6" ht="60">
+      <c r="B348" s="11"/>
+      <c r="C348" s="11"/>
+      <c r="D348" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E348" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="F348" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="349" spans="2:6">
+      <c r="B349" s="11"/>
+      <c r="C349" s="11"/>
+    </row>
+    <row r="350" spans="2:6">
+      <c r="B350" s="11"/>
+      <c r="C350" s="11"/>
+    </row>
+    <row r="351" spans="2:6">
+      <c r="B351" s="11"/>
+      <c r="C351" s="11"/>
+      <c r="D351" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E351" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="352" spans="2:6">
+      <c r="B352" s="11"/>
+      <c r="C352" s="11"/>
+    </row>
+    <row r="353" spans="2:5">
+      <c r="B353" s="11"/>
+      <c r="C353" s="11"/>
+    </row>
+    <row r="354" spans="2:5">
+      <c r="B354" s="11"/>
+      <c r="C354" s="11"/>
+      <c r="D354" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E354" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="355" spans="2:5">
+      <c r="B355" s="11"/>
+      <c r="C355" s="11"/>
+    </row>
+    <row r="356" spans="2:5">
+      <c r="B356" s="11"/>
+      <c r="C356" s="11"/>
+    </row>
+    <row r="357" spans="2:5">
+      <c r="B357" s="11"/>
+      <c r="C357" s="11"/>
+    </row>
+    <row r="358" spans="2:5">
+      <c r="B358" s="11"/>
+      <c r="C358" s="11"/>
+    </row>
+    <row r="359" spans="2:5">
+      <c r="B359" s="11"/>
+      <c r="C359" s="11"/>
+    </row>
+    <row r="360" spans="2:5">
+      <c r="B360" s="11"/>
+      <c r="C360" s="11"/>
+    </row>
+    <row r="361" spans="2:5">
+      <c r="B361" s="11"/>
+      <c r="C361" s="11"/>
+    </row>
+    <row r="369" spans="2:7">
+      <c r="B369" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C369" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="370" spans="2:7">
+      <c r="B370" s="11"/>
+      <c r="C370" s="11"/>
+      <c r="D370" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E370" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F370" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G370" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="371" spans="2:7">
+      <c r="B371" s="11"/>
+      <c r="C371" s="11"/>
+      <c r="G371" s="11"/>
+    </row>
+    <row r="372" spans="2:7">
+      <c r="B372" s="11"/>
+      <c r="C372" s="11"/>
+      <c r="G372" s="11"/>
+    </row>
+    <row r="373" spans="2:7">
+      <c r="B373" s="11"/>
+      <c r="C373" s="11"/>
+      <c r="D373" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E373" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F373" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G373" s="11"/>
+    </row>
+    <row r="374" spans="2:7">
+      <c r="B374" s="11"/>
+      <c r="C374" s="11"/>
+    </row>
+    <row r="375" spans="2:7" ht="45">
+      <c r="B375" s="11"/>
+      <c r="C375" s="11"/>
+      <c r="D375" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E375" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="376" spans="2:7">
+      <c r="B376" s="11"/>
+      <c r="C376" s="11"/>
+    </row>
+    <row r="377" spans="2:7">
+      <c r="B377" s="11"/>
+      <c r="C377" s="11"/>
+      <c r="D377" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E377" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F377" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="378" spans="2:7">
+      <c r="B378" s="11"/>
+      <c r="C378" s="11"/>
+      <c r="D378" s="11"/>
+      <c r="E378" s="11"/>
+      <c r="F378" s="11"/>
+    </row>
+    <row r="379" spans="2:7">
+      <c r="B379" s="11"/>
+      <c r="C379" s="11"/>
+      <c r="D379" s="11"/>
+      <c r="E379" s="11"/>
+      <c r="F379" s="11"/>
+    </row>
+    <row r="380" spans="2:7">
+      <c r="B380" s="11"/>
+      <c r="C380" s="11"/>
+      <c r="D380" s="11"/>
+      <c r="E380" s="11"/>
+      <c r="F380" s="11"/>
+    </row>
+    <row r="381" spans="2:7">
+      <c r="B381" s="11"/>
+      <c r="C381" s="11"/>
+    </row>
+    <row r="382" spans="2:7">
+      <c r="B382" s="11"/>
+      <c r="C382" s="11"/>
+    </row>
+    <row r="383" spans="2:7">
+      <c r="B383" s="11"/>
+      <c r="C383" s="11"/>
+      <c r="D383" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E383" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F383" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="384" spans="2:7">
+      <c r="B384" s="11"/>
+      <c r="C384" s="11"/>
+      <c r="D384" s="11"/>
+      <c r="E384" s="11"/>
+      <c r="F384" s="11"/>
+    </row>
+    <row r="385" spans="2:7">
+      <c r="B385" s="11"/>
+      <c r="C385" s="11"/>
+      <c r="D385" s="11"/>
+      <c r="E385" s="11"/>
+      <c r="F385" s="11"/>
+    </row>
+    <row r="386" spans="2:7">
+      <c r="B386" s="11"/>
+      <c r="C386" s="11"/>
+      <c r="D386" s="11"/>
+      <c r="E386" s="11"/>
+      <c r="F386" s="11"/>
+    </row>
+    <row r="387" spans="2:7">
+      <c r="B387" s="11"/>
+      <c r="C387" s="11"/>
+      <c r="D387" s="11"/>
+      <c r="E387" s="11"/>
+      <c r="F387" s="11"/>
+    </row>
+    <row r="388" spans="2:7">
+      <c r="B388" s="11"/>
+      <c r="C388" s="11"/>
+      <c r="D388" s="11"/>
+      <c r="E388" s="11"/>
+      <c r="F388" s="11"/>
+    </row>
+    <row r="389" spans="2:7">
+      <c r="B389" s="11"/>
+      <c r="C389" s="11"/>
+      <c r="D389" s="11"/>
+      <c r="E389" s="11"/>
+      <c r="F389" s="11"/>
+    </row>
+    <row r="390" spans="2:7">
+      <c r="B390" s="11"/>
+      <c r="C390" s="11"/>
+      <c r="D390" s="11"/>
+      <c r="E390" s="11"/>
+      <c r="F390" s="11"/>
+    </row>
+    <row r="391" spans="2:7">
+      <c r="B391" s="11"/>
+      <c r="C391" s="11"/>
+      <c r="D391" s="11"/>
+      <c r="E391" s="11"/>
+      <c r="F391" s="11"/>
+    </row>
+    <row r="392" spans="2:7">
+      <c r="B392" s="11"/>
+      <c r="C392" s="11"/>
+    </row>
+    <row r="393" spans="2:7">
+      <c r="B393" s="11"/>
+      <c r="C393" s="11"/>
+      <c r="D393" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E393" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F393" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G393" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="394" spans="2:7">
+      <c r="B394" s="11"/>
+      <c r="C394" s="11"/>
+      <c r="D394" s="11"/>
+      <c r="E394" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G394" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="395" spans="2:7">
+      <c r="B395" s="11"/>
+      <c r="C395" s="11"/>
+    </row>
+    <row r="396" spans="2:7">
+      <c r="B396" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C396" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="397" spans="2:7">
+      <c r="B397" s="11"/>
+      <c r="C397" s="11"/>
+      <c r="D397" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E397" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="398" spans="2:7">
+      <c r="B398" s="11"/>
+      <c r="C398" s="11"/>
+    </row>
+    <row r="399" spans="2:7">
+      <c r="B399" s="11"/>
+      <c r="C399" s="11"/>
+    </row>
+    <row r="400" spans="2:7">
+      <c r="B400" s="11"/>
+      <c r="C400" s="11"/>
+    </row>
+    <row r="401" spans="2:5">
+      <c r="B401" s="11"/>
+      <c r="C401" s="11"/>
+    </row>
+    <row r="402" spans="2:5">
+      <c r="B402" s="11"/>
+      <c r="C402" s="11"/>
+      <c r="D402" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E402" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="403" spans="2:5">
+      <c r="B403" s="11"/>
+      <c r="C403" s="11"/>
+    </row>
+    <row r="404" spans="2:5">
+      <c r="B404" s="11"/>
+      <c r="C404" s="11"/>
+    </row>
+    <row r="405" spans="2:5">
+      <c r="B405" s="11"/>
+      <c r="C405" s="11"/>
+    </row>
+    <row r="406" spans="2:5">
+      <c r="B406" s="11"/>
+      <c r="C406" s="11"/>
+    </row>
+    <row r="407" spans="2:5">
+      <c r="B407" s="11"/>
+      <c r="C407" s="11"/>
+    </row>
+    <row r="408" spans="2:5">
+      <c r="B408" s="11"/>
+      <c r="C408" s="11"/>
+    </row>
+    <row r="409" spans="2:5">
+      <c r="B409" s="11"/>
+      <c r="C409" s="11"/>
+    </row>
+    <row r="410" spans="2:5">
+      <c r="B410" s="11"/>
+      <c r="C410" s="11"/>
+    </row>
+    <row r="411" spans="2:5">
+      <c r="B411" s="11"/>
+      <c r="C411" s="11"/>
+    </row>
+    <row r="412" spans="2:5">
+      <c r="B412" s="11"/>
+      <c r="C412" s="11"/>
+    </row>
+    <row r="413" spans="2:5">
+      <c r="B413" s="11"/>
+      <c r="C413" s="11"/>
+    </row>
+    <row r="414" spans="2:5">
+      <c r="B414" s="11"/>
+      <c r="C414" s="11"/>
+    </row>
+    <row r="415" spans="2:5">
+      <c r="B415" s="11"/>
+      <c r="C415" s="11"/>
+    </row>
+    <row r="416" spans="2:5">
+      <c r="B416" s="11"/>
+      <c r="C416" s="11"/>
+    </row>
+    <row r="417" spans="2:6">
+      <c r="B417" s="11"/>
+      <c r="C417" s="11"/>
+    </row>
+    <row r="418" spans="2:6">
+      <c r="B418" s="11"/>
+      <c r="C418" s="11"/>
+    </row>
+    <row r="419" spans="2:6">
+      <c r="B419" s="11"/>
+      <c r="C419" s="11"/>
+    </row>
+    <row r="420" spans="2:6">
+      <c r="B420" s="11"/>
+      <c r="C420" s="11"/>
+    </row>
+    <row r="421" spans="2:6">
+      <c r="B421" s="11"/>
+      <c r="C421" s="11"/>
+    </row>
+    <row r="422" spans="2:6">
+      <c r="B422" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C422" s="11"/>
+    </row>
+    <row r="423" spans="2:6" ht="30">
+      <c r="B423" s="11"/>
+      <c r="C423" s="11"/>
+      <c r="D423" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E423" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="F423" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="424" spans="2:6">
+      <c r="B424" s="11"/>
+      <c r="C424" s="11"/>
+    </row>
+    <row r="425" spans="2:6">
+      <c r="B425" s="11"/>
+      <c r="C425" s="11"/>
+    </row>
+    <row r="426" spans="2:6">
+      <c r="B426" s="11"/>
+      <c r="C426" s="11"/>
+    </row>
+    <row r="427" spans="2:6">
+      <c r="B427" s="11"/>
+      <c r="C427" s="11"/>
+    </row>
+    <row r="428" spans="2:6">
+      <c r="B428" s="11"/>
+      <c r="C428" s="11"/>
+    </row>
+    <row r="429" spans="2:6" ht="30">
+      <c r="B429" s="11"/>
+      <c r="C429" s="11"/>
+      <c r="D429" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E429" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F429" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="430" spans="2:6">
+      <c r="B430" s="11"/>
+      <c r="C430" s="11"/>
+    </row>
+    <row r="431" spans="2:6">
+      <c r="B431" s="11"/>
+      <c r="C431" s="11"/>
+    </row>
+    <row r="432" spans="2:6">
+      <c r="B432" s="11"/>
+      <c r="C432" s="11"/>
+      <c r="D432" s="10"/>
+      <c r="E432" s="10"/>
+      <c r="F432" s="10"/>
+    </row>
+    <row r="433" spans="2:6">
+      <c r="B433" s="11"/>
+      <c r="C433" s="11"/>
+      <c r="D433" s="14"/>
+      <c r="E433" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F433" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="434" spans="2:6">
+      <c r="B434" s="11"/>
+      <c r="C434" s="11"/>
+      <c r="D434" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E434" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F434" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="435" spans="2:6" ht="30">
+      <c r="B435" s="11"/>
+      <c r="C435" s="11"/>
+      <c r="D435" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E435" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="F435" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="436" spans="2:6">
+      <c r="B436" s="11"/>
+      <c r="C436" s="11"/>
+      <c r="D436" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E436" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="F436" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="437" spans="2:6">
+      <c r="B437" s="11"/>
+      <c r="C437" s="11"/>
+    </row>
+    <row r="438" spans="2:6">
+      <c r="B438" s="11"/>
+      <c r="C438" s="11"/>
+    </row>
+    <row r="439" spans="2:6">
+      <c r="B439" s="11"/>
+      <c r="C439" s="11"/>
+    </row>
+    <row r="440" spans="2:6">
+      <c r="B440" s="11"/>
+      <c r="C440" s="11"/>
+    </row>
+    <row r="441" spans="2:6">
+      <c r="B441" s="11"/>
+      <c r="C441" s="11"/>
+    </row>
+    <row r="442" spans="2:6">
+      <c r="B442" s="11"/>
+      <c r="C442" s="11"/>
+    </row>
+    <row r="443" spans="2:6">
+      <c r="B443" s="11"/>
+      <c r="C443" s="11"/>
+    </row>
+    <row r="444" spans="2:6">
+      <c r="B444" s="11"/>
+      <c r="C444" s="11"/>
+    </row>
+    <row r="445" spans="2:6">
+      <c r="B445" s="11"/>
+      <c r="C445" s="11"/>
+    </row>
+    <row r="446" spans="2:6">
+      <c r="B446" s="11"/>
+      <c r="C446" s="11"/>
+    </row>
+    <row r="447" spans="2:6">
+      <c r="B447" s="11"/>
+      <c r="C447" s="11"/>
+    </row>
+    <row r="449" spans="2:5">
+      <c r="B449" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C449" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D449" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="450" spans="2:5">
+      <c r="B450" s="11"/>
+      <c r="C450" s="11"/>
+    </row>
+    <row r="451" spans="2:5">
+      <c r="B451" s="11"/>
+      <c r="C451" s="11"/>
+    </row>
+    <row r="452" spans="2:5">
+      <c r="B452" s="11"/>
+      <c r="C452" s="11"/>
+    </row>
+    <row r="453" spans="2:5">
+      <c r="B453" s="11"/>
+      <c r="C453" s="11"/>
+      <c r="D453" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E453" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="454" spans="2:5">
+      <c r="B454" s="11"/>
+      <c r="C454" s="11"/>
+    </row>
+    <row r="455" spans="2:5">
+      <c r="B455" s="11"/>
+      <c r="C455" s="11"/>
+    </row>
+    <row r="456" spans="2:5">
+      <c r="B456" s="11"/>
+      <c r="C456" s="11"/>
+    </row>
+    <row r="457" spans="2:5">
+      <c r="B457" s="11"/>
+      <c r="C457" s="11"/>
+    </row>
+    <row r="458" spans="2:5">
+      <c r="B458" s="11"/>
+      <c r="C458" s="11"/>
+      <c r="D458" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E458" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="459" spans="2:5">
+      <c r="B459" s="11"/>
+      <c r="C459" s="11"/>
+    </row>
+    <row r="460" spans="2:5">
+      <c r="B460" s="11"/>
+      <c r="C460" s="11"/>
+    </row>
+    <row r="461" spans="2:5">
+      <c r="B461" s="11"/>
+      <c r="C461" s="11"/>
+    </row>
+    <row r="462" spans="2:5">
+      <c r="B462" s="11"/>
+      <c r="C462" s="11"/>
+    </row>
+    <row r="463" spans="2:5">
+      <c r="B463" s="11"/>
+      <c r="C463" s="11"/>
+    </row>
+    <row r="464" spans="2:5">
+      <c r="B464" s="11"/>
+      <c r="C464" s="11"/>
+    </row>
+    <row r="465" spans="2:6">
+      <c r="B465" s="11"/>
+      <c r="C465" s="11"/>
+    </row>
+    <row r="466" spans="2:6">
+      <c r="B466" s="11"/>
+      <c r="C466" s="11"/>
+    </row>
+    <row r="467" spans="2:6">
+      <c r="B467" s="11"/>
+      <c r="C467" s="11"/>
+    </row>
+    <row r="468" spans="2:6">
+      <c r="B468" s="11"/>
+      <c r="C468" s="11"/>
+    </row>
+    <row r="472" spans="2:6">
+      <c r="B472" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C472" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="473" spans="2:6">
+      <c r="B473" s="11"/>
+      <c r="C473" s="11"/>
+      <c r="D473" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E473" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="474" spans="2:6">
+      <c r="B474" s="11"/>
+      <c r="C474" s="11"/>
+    </row>
+    <row r="475" spans="2:6">
+      <c r="B475" s="11"/>
+      <c r="C475" s="11"/>
+    </row>
+    <row r="476" spans="2:6">
+      <c r="B476" s="11"/>
+      <c r="C476" s="11"/>
+    </row>
+    <row r="477" spans="2:6" ht="45">
+      <c r="B477" s="11"/>
+      <c r="C477" s="11"/>
+      <c r="D477" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="F477" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="478" spans="2:6">
+      <c r="B478" s="11"/>
+      <c r="C478" s="11"/>
+    </row>
+    <row r="479" spans="2:6">
+      <c r="B479" s="11"/>
+      <c r="C479" s="11"/>
+    </row>
+    <row r="480" spans="2:6">
+      <c r="B480" s="11"/>
+      <c r="C480" s="11"/>
+    </row>
+    <row r="481" spans="2:3">
+      <c r="B481" s="11"/>
+      <c r="C481" s="11"/>
+    </row>
+    <row r="482" spans="2:3">
+      <c r="B482" s="11"/>
+      <c r="C482" s="11"/>
+    </row>
+    <row r="483" spans="2:3">
+      <c r="B483" s="11"/>
+      <c r="C483" s="11"/>
+    </row>
+    <row r="484" spans="2:3">
+      <c r="B484" s="11"/>
+      <c r="C484" s="11"/>
+    </row>
+    <row r="485" spans="2:3">
+      <c r="B485" s="11"/>
+      <c r="C485" s="11"/>
+    </row>
+    <row r="486" spans="2:3">
+      <c r="B486" s="11"/>
+      <c r="C486" s="11"/>
+    </row>
+    <row r="487" spans="2:3">
+      <c r="B487" s="11"/>
+      <c r="C487" s="11"/>
+    </row>
+    <row r="488" spans="2:3">
+      <c r="B488" s="11"/>
+      <c r="C488" s="11"/>
+    </row>
+    <row r="489" spans="2:3">
+      <c r="B489" s="11"/>
+      <c r="C489" s="11"/>
+    </row>
+    <row r="490" spans="2:3">
+      <c r="B490" s="11"/>
+      <c r="C490" s="11"/>
+    </row>
+    <row r="491" spans="2:3">
+      <c r="B491" s="11"/>
+      <c r="C491" s="11"/>
+    </row>
+    <row r="492" spans="2:3">
+      <c r="B492" s="11"/>
+      <c r="C492" s="11"/>
+    </row>
+    <row r="493" spans="2:3">
+      <c r="B493" s="11"/>
+      <c r="C493" s="11"/>
+    </row>
+    <row r="494" spans="2:3">
+      <c r="B494" s="11"/>
+      <c r="C494" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="52">
+    <mergeCell ref="B472:B494"/>
+    <mergeCell ref="C472:C494"/>
+    <mergeCell ref="B449:B468"/>
+    <mergeCell ref="C449:C468"/>
+    <mergeCell ref="G370:G373"/>
+    <mergeCell ref="D393:D394"/>
+    <mergeCell ref="B422:B447"/>
+    <mergeCell ref="C422:C447"/>
+    <mergeCell ref="F377:F380"/>
+    <mergeCell ref="E377:E380"/>
+    <mergeCell ref="D377:D380"/>
+    <mergeCell ref="D383:D391"/>
+    <mergeCell ref="E383:E391"/>
+    <mergeCell ref="F383:F391"/>
+    <mergeCell ref="B345:B361"/>
+    <mergeCell ref="C345:C361"/>
+    <mergeCell ref="B369:B395"/>
+    <mergeCell ref="B396:B421"/>
+    <mergeCell ref="C369:C395"/>
+    <mergeCell ref="C396:C421"/>
     <mergeCell ref="B224:B247"/>
     <mergeCell ref="D176:D181"/>
     <mergeCell ref="E176:E181"/>
@@ -5284,6 +8844,14 @@
     <mergeCell ref="B30:B54"/>
     <mergeCell ref="D4:D29"/>
     <mergeCell ref="C30:C54"/>
+    <mergeCell ref="B320:B341"/>
+    <mergeCell ref="C320:C341"/>
+    <mergeCell ref="B249:B271"/>
+    <mergeCell ref="C249:C271"/>
+    <mergeCell ref="B273:B294"/>
+    <mergeCell ref="C273:C294"/>
+    <mergeCell ref="B296:B318"/>
+    <mergeCell ref="C296:C318"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5307,230 +8875,230 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="8" customWidth="1"/>
-    <col min="2" max="18" width="10.83203125" style="8"/>
+    <col min="1" max="1" width="16.5" style="7" customWidth="1"/>
+    <col min="2" max="18" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:13">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="7"/>
+      <c r="A4" s="13"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="7"/>
+      <c r="A5" s="13"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="7"/>
+      <c r="A6" s="13"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="7"/>
+      <c r="A7" s="13"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="7"/>
-      <c r="E8" s="7" t="s">
+      <c r="A8" s="13"/>
+      <c r="E8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="A9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="K10" s="7" t="s">
+      <c r="A10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="K10" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
+      <c r="A11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="A12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="A13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="A14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="7"/>
+      <c r="A15" s="13"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="13" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="7"/>
+      <c r="A18" s="13"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="7"/>
+      <c r="A19" s="13"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="7"/>
+      <c r="A20" s="13"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="7"/>
+      <c r="A21" s="13"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="7"/>
-      <c r="J22" s="7" t="s">
+      <c r="A22" s="13"/>
+      <c r="J22" s="13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="A23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="7"/>
-      <c r="J24" s="7"/>
+      <c r="A24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="O25" s="9" t="s">
+      <c r="A25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="O25" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
+      <c r="A26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
+      <c r="A27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="7"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
+      <c r="A28" s="13"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="7"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
+      <c r="A29" s="13"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="7"/>
+      <c r="A30" s="13"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="7"/>
+      <c r="A31" s="13"/>
     </row>
     <row r="33" spans="2:9">
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
     </row>
     <row r="34" spans="2:9">
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
     </row>
     <row r="35" spans="2:9">
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5564,212 +9132,212 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="10" customWidth="1"/>
-    <col min="2" max="19" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="24.33203125" style="8" customWidth="1"/>
+    <col min="2" max="19" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:16">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="12" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="9"/>
-      <c r="O5" s="9" t="s">
+      <c r="A5" s="12"/>
+      <c r="O5" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="P5" s="9"/>
+      <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
+      <c r="A6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
+      <c r="A7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="A8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="9"/>
-      <c r="G9" s="9" t="s">
+      <c r="A9" s="12"/>
+      <c r="G9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
+      <c r="A10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
+      <c r="A11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
+      <c r="A12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
+      <c r="A13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
     </row>
     <row r="20" spans="4:18">
-      <c r="M20" s="9" t="s">
+      <c r="M20" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="N20" s="9"/>
+      <c r="N20" s="12"/>
     </row>
     <row r="21" spans="4:18">
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
     </row>
     <row r="22" spans="4:18">
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="4:18">
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="4:18">
-      <c r="Q24" s="9" t="s">
+      <c r="Q24" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="R24" s="9"/>
+      <c r="R24" s="12"/>
     </row>
     <row r="25" spans="4:18">
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
     </row>
     <row r="26" spans="4:18">
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
     </row>
     <row r="27" spans="4:18">
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
     </row>
     <row r="28" spans="4:18">
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
     </row>
     <row r="29" spans="4:18">
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
     </row>
     <row r="30" spans="4:18">
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
     </row>
     <row r="31" spans="4:18">
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
     </row>
     <row r="32" spans="4:18">
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
     </row>
     <row r="34" spans="1:18">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
+      <c r="B34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="G40" s="9" t="s">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="G40" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="H40" s="9"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:18">
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
